--- a/AutomatisationGlobaleInc/CommandesValidees.xlsx
+++ b/AutomatisationGlobaleInc/CommandesValidees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexi\Documents\UiPath\AutomatisationGlobaleInc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836022C-AD0D-410C-804A-0E35DC502090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC647870-0707-4EA4-9A03-7C7583F6E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{B1C395ED-3B88-4CA5-B6A5-7E972B63382D}"/>
+    <workbookView xWindow="-27405" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{93E2D37A-4932-44DC-BFC1-AC61103873A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413F5528-68F1-4877-B04A-29BEF5BA3F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786C769C-B59C-4801-B8FE-5272DAD29106}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
